--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit1-Robo2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit1-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Robo2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H2">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I2">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J2">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.340252822900854</v>
+        <v>0.5215465</v>
       </c>
       <c r="N2">
-        <v>0.340252822900854</v>
+        <v>1.043093</v>
       </c>
       <c r="O2">
-        <v>0.4013687992532526</v>
+        <v>0.3993854683363039</v>
       </c>
       <c r="P2">
-        <v>0.4013687992532526</v>
+        <v>0.3071469942766215</v>
       </c>
       <c r="Q2">
-        <v>0.1168827203545154</v>
+        <v>0.06384589711725</v>
       </c>
       <c r="R2">
-        <v>0.1168827203545154</v>
+        <v>0.255383588469</v>
       </c>
       <c r="S2">
-        <v>0.06717704660787968</v>
+        <v>0.01927647542203625</v>
       </c>
       <c r="T2">
-        <v>0.06717704660787968</v>
+        <v>0.010535359368432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H3">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I3">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J3">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.50747830003121</v>
+        <v>0.002342</v>
       </c>
       <c r="N3">
-        <v>0.50747830003121</v>
+        <v>0.007026</v>
       </c>
       <c r="O3">
-        <v>0.5986312007467474</v>
+        <v>0.001793436954986034</v>
       </c>
       <c r="P3">
-        <v>0.5986312007467474</v>
+        <v>0.002068861340060323</v>
       </c>
       <c r="Q3">
-        <v>0.1743275594977699</v>
+        <v>0.000286699443</v>
       </c>
       <c r="R3">
-        <v>0.1743275594977699</v>
+        <v>0.001720196658</v>
       </c>
       <c r="S3">
-        <v>0.1001928305047975</v>
+        <v>8.65608444087131E-05</v>
       </c>
       <c r="T3">
-        <v>0.1001928305047975</v>
+        <v>7.09634087493668E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.45834274174173</v>
+        <v>0.1224165</v>
       </c>
       <c r="H4">
-        <v>0.45834274174173</v>
+        <v>0.244833</v>
       </c>
       <c r="I4">
-        <v>0.223315609939031</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J4">
-        <v>0.223315609939031</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.340252822900854</v>
+        <v>0.7819839999999999</v>
       </c>
       <c r="N4">
-        <v>0.340252822900854</v>
+        <v>2.345952</v>
       </c>
       <c r="O4">
-        <v>0.4013687992532526</v>
+        <v>0.59882109470871</v>
       </c>
       <c r="P4">
-        <v>0.4013687992532526</v>
+        <v>0.6907841443833183</v>
       </c>
       <c r="Q4">
-        <v>0.1559524117337407</v>
+        <v>0.09572774433599998</v>
       </c>
       <c r="R4">
-        <v>0.1559524117337407</v>
+        <v>0.5743664660159999</v>
       </c>
       <c r="S4">
-        <v>0.08963191821573663</v>
+        <v>0.02890230373787494</v>
       </c>
       <c r="T4">
-        <v>0.08963191821573663</v>
+        <v>0.02369438523802939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,433 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H5">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I5">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J5">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.50747830003121</v>
+        <v>0.5215465</v>
       </c>
       <c r="N5">
-        <v>0.50747830003121</v>
+        <v>1.043093</v>
       </c>
       <c r="O5">
-        <v>0.5986312007467474</v>
+        <v>0.3993854683363039</v>
       </c>
       <c r="P5">
-        <v>0.5986312007467474</v>
+        <v>0.3071469942766215</v>
       </c>
       <c r="Q5">
-        <v>0.2325989954107371</v>
+        <v>0.1969347414581667</v>
       </c>
       <c r="R5">
-        <v>0.2325989954107371</v>
+        <v>1.181608448749</v>
       </c>
       <c r="S5">
-        <v>0.1336836917232944</v>
+        <v>0.05945891396109377</v>
       </c>
       <c r="T5">
-        <v>0.1336836917232944</v>
+        <v>0.04874498676667031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.70300487210798</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H6">
-        <v>0.70300487210798</v>
+        <v>1.132793</v>
       </c>
       <c r="I6">
-        <v>0.3425208855895158</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J6">
-        <v>0.3425208855895158</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.340252822900854</v>
+        <v>0.002342</v>
       </c>
       <c r="N6">
-        <v>0.340252822900854</v>
+        <v>0.007026</v>
       </c>
       <c r="O6">
-        <v>0.4013687992532526</v>
+        <v>0.001793436954986034</v>
       </c>
       <c r="P6">
-        <v>0.4013687992532526</v>
+        <v>0.002068861340060323</v>
       </c>
       <c r="Q6">
-        <v>0.239199392247794</v>
+        <v>0.0008843337353333332</v>
       </c>
       <c r="R6">
-        <v>0.239199392247794</v>
+        <v>0.007959003617999999</v>
       </c>
       <c r="S6">
-        <v>0.1374771965682247</v>
+        <v>0.0002669997334789546</v>
       </c>
       <c r="T6">
-        <v>0.1374771965682247</v>
+        <v>0.0003283334055761333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.70300487210798</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H7">
-        <v>0.70300487210798</v>
+        <v>1.132793</v>
       </c>
       <c r="I7">
-        <v>0.3425208855895158</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J7">
-        <v>0.3425208855895158</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.50747830003121</v>
+        <v>0.7819839999999999</v>
       </c>
       <c r="N7">
-        <v>0.50747830003121</v>
+        <v>2.345952</v>
       </c>
       <c r="O7">
-        <v>0.5986312007467474</v>
+        <v>0.59882109470871</v>
       </c>
       <c r="P7">
-        <v>0.5986312007467474</v>
+        <v>0.6907841443833183</v>
       </c>
       <c r="Q7">
-        <v>0.3567597174110159</v>
+        <v>0.2952753337706666</v>
       </c>
       <c r="R7">
-        <v>0.3567597174110159</v>
+        <v>2.657478003935999</v>
       </c>
       <c r="S7">
-        <v>0.2050436890212911</v>
+        <v>0.08915009375952469</v>
       </c>
       <c r="T7">
-        <v>0.2050436890212911</v>
+        <v>0.1096291502246144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.201042873825539</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H8">
-        <v>0.201042873825539</v>
+        <v>2.175398</v>
       </c>
       <c r="I8">
-        <v>0.09795292453337072</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J8">
-        <v>0.09795292453337072</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.340252822900854</v>
+        <v>0.5215465</v>
       </c>
       <c r="N8">
-        <v>0.340252822900854</v>
+        <v>1.043093</v>
       </c>
       <c r="O8">
-        <v>0.4013687992532526</v>
+        <v>0.3993854683363039</v>
       </c>
       <c r="P8">
-        <v>0.4013687992532526</v>
+        <v>0.3071469942766215</v>
       </c>
       <c r="Q8">
-        <v>0.06840540534323987</v>
+        <v>0.3781904043356667</v>
       </c>
       <c r="R8">
-        <v>0.06840540534323987</v>
+        <v>2.269142426014</v>
       </c>
       <c r="S8">
-        <v>0.03931524770330348</v>
+        <v>0.1141839705163569</v>
       </c>
       <c r="T8">
-        <v>0.03931524770330348</v>
+        <v>0.09360911192269115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.201042873825539</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H9">
-        <v>0.201042873825539</v>
+        <v>2.175398</v>
       </c>
       <c r="I9">
-        <v>0.09795292453337072</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J9">
-        <v>0.09795292453337072</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.50747830003121</v>
+        <v>0.002342</v>
       </c>
       <c r="N9">
-        <v>0.50747830003121</v>
+        <v>0.007026</v>
       </c>
       <c r="O9">
-        <v>0.5986312007467474</v>
+        <v>0.001793436954986034</v>
       </c>
       <c r="P9">
-        <v>0.5986312007467474</v>
+        <v>0.002068861340060323</v>
       </c>
       <c r="Q9">
-        <v>0.1020248958423736</v>
+        <v>0.001698260705333333</v>
       </c>
       <c r="R9">
-        <v>0.1020248958423736</v>
+        <v>0.015284346348</v>
       </c>
       <c r="S9">
-        <v>0.05863767683006724</v>
+        <v>0.0005127421216503375</v>
       </c>
       <c r="T9">
-        <v>0.05863767683006724</v>
+        <v>0.0006305263484356889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.34653605572725</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H10">
-        <v>0.34653605572725</v>
+        <v>2.175398</v>
       </c>
       <c r="I10">
-        <v>0.1688407028254052</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J10">
-        <v>0.1688407028254052</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.340252822900854</v>
+        <v>0.7819839999999999</v>
       </c>
       <c r="N10">
-        <v>0.340252822900854</v>
+        <v>2.345952</v>
       </c>
       <c r="O10">
-        <v>0.4013687992532526</v>
+        <v>0.59882109470871</v>
       </c>
       <c r="P10">
-        <v>0.4013687992532526</v>
+        <v>0.6907841443833183</v>
       </c>
       <c r="Q10">
-        <v>0.1179098711981245</v>
+        <v>0.5670421432106666</v>
       </c>
       <c r="R10">
-        <v>0.1179098711981245</v>
+        <v>5.103379288895999</v>
       </c>
       <c r="S10">
-        <v>0.06776739015810816</v>
+        <v>0.1712024488713141</v>
       </c>
       <c r="T10">
-        <v>0.06776739015810816</v>
+        <v>0.2105301093318248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7440523333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.232157</v>
+      </c>
+      <c r="I11">
+        <v>0.293358647317485</v>
+      </c>
+      <c r="J11">
+        <v>0.3127215918651032</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5215465</v>
+      </c>
+      <c r="N11">
+        <v>1.043093</v>
+      </c>
+      <c r="O11">
+        <v>0.3993854683363039</v>
+      </c>
+      <c r="P11">
+        <v>0.3071469942766215</v>
+      </c>
+      <c r="Q11">
+        <v>0.3880578902668333</v>
+      </c>
+      <c r="R11">
+        <v>2.328347341601</v>
+      </c>
+      <c r="S11">
+        <v>0.1171631807493983</v>
+      </c>
+      <c r="T11">
+        <v>0.09605149698676679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7440523333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.232157</v>
+      </c>
+      <c r="I12">
+        <v>0.293358647317485</v>
+      </c>
+      <c r="J12">
+        <v>0.3127215918651032</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.002342</v>
+      </c>
+      <c r="N12">
+        <v>0.007026</v>
+      </c>
+      <c r="O12">
+        <v>0.001793436954986034</v>
+      </c>
+      <c r="P12">
+        <v>0.002068861340060323</v>
+      </c>
+      <c r="Q12">
+        <v>0.001742570564666667</v>
+      </c>
+      <c r="R12">
+        <v>0.015683135082</v>
+      </c>
+      <c r="S12">
+        <v>0.0005261202391638921</v>
+      </c>
+      <c r="T12">
+        <v>0.0006469776116118347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7440523333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.232157</v>
+      </c>
+      <c r="I13">
+        <v>0.293358647317485</v>
+      </c>
+      <c r="J13">
+        <v>0.3127215918651032</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7819839999999999</v>
+      </c>
+      <c r="N13">
+        <v>2.345952</v>
+      </c>
+      <c r="O13">
+        <v>0.59882109470871</v>
+      </c>
+      <c r="P13">
+        <v>0.6907841443833183</v>
+      </c>
+      <c r="Q13">
+        <v>0.5818370198293332</v>
+      </c>
+      <c r="R13">
+        <v>5.236533178463999</v>
+      </c>
+      <c r="S13">
+        <v>0.1756693463289227</v>
+      </c>
+      <c r="T13">
+        <v>0.2160231172667245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.218412</v>
+      </c>
+      <c r="H14">
+        <v>0.655236</v>
+      </c>
+      <c r="I14">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J14">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5215465</v>
+      </c>
+      <c r="N14">
+        <v>1.043093</v>
+      </c>
+      <c r="O14">
+        <v>0.3993854683363039</v>
+      </c>
+      <c r="P14">
+        <v>0.3071469942766215</v>
+      </c>
+      <c r="Q14">
+        <v>0.113912014158</v>
+      </c>
+      <c r="R14">
+        <v>0.683472084948</v>
+      </c>
+      <c r="S14">
+        <v>0.03439253327678688</v>
+      </c>
+      <c r="T14">
+        <v>0.0281953279628723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.218412</v>
+      </c>
+      <c r="H15">
+        <v>0.655236</v>
+      </c>
+      <c r="I15">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J15">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.002342</v>
+      </c>
+      <c r="N15">
+        <v>0.007026</v>
+      </c>
+      <c r="O15">
+        <v>0.001793436954986034</v>
+      </c>
+      <c r="P15">
+        <v>0.002068861340060323</v>
+      </c>
+      <c r="Q15">
+        <v>0.0005115209040000001</v>
+      </c>
+      <c r="R15">
+        <v>0.004603688136</v>
+      </c>
+      <c r="S15">
+        <v>0.0001544393700930499</v>
+      </c>
+      <c r="T15">
+        <v>0.0001899163106905528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.218412</v>
+      </c>
+      <c r="H16">
+        <v>0.655236</v>
+      </c>
+      <c r="I16">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J16">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7819839999999999</v>
+      </c>
+      <c r="N16">
+        <v>2.345952</v>
+      </c>
+      <c r="O16">
+        <v>0.59882109470871</v>
+      </c>
+      <c r="P16">
+        <v>0.6907841443833183</v>
+      </c>
+      <c r="Q16">
+        <v>0.170794689408</v>
+      </c>
+      <c r="R16">
+        <v>1.537152204672</v>
+      </c>
+      <c r="S16">
+        <v>0.05156665942905361</v>
+      </c>
+      <c r="T16">
+        <v>0.06341226144280154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.34653605572725</v>
-      </c>
-      <c r="H11">
-        <v>0.34653605572725</v>
-      </c>
-      <c r="I11">
-        <v>0.1688407028254052</v>
-      </c>
-      <c r="J11">
-        <v>0.1688407028254052</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.50747830003121</v>
-      </c>
-      <c r="N11">
-        <v>0.50747830003121</v>
-      </c>
-      <c r="O11">
-        <v>0.5986312007467474</v>
-      </c>
-      <c r="P11">
-        <v>0.5986312007467474</v>
-      </c>
-      <c r="Q11">
-        <v>0.1758595284599855</v>
-      </c>
-      <c r="R11">
-        <v>0.1758595284599855</v>
-      </c>
-      <c r="S11">
-        <v>0.1010733126672971</v>
-      </c>
-      <c r="T11">
-        <v>0.1010733126672971</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.348712</v>
+      </c>
+      <c r="H17">
+        <v>0.697424</v>
+      </c>
+      <c r="I17">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J17">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5215465</v>
+      </c>
+      <c r="N17">
+        <v>1.043093</v>
+      </c>
+      <c r="O17">
+        <v>0.3993854683363039</v>
+      </c>
+      <c r="P17">
+        <v>0.3071469942766215</v>
+      </c>
+      <c r="Q17">
+        <v>0.181869523108</v>
+      </c>
+      <c r="R17">
+        <v>0.7274780924320001</v>
+      </c>
+      <c r="S17">
+        <v>0.05491039441063178</v>
+      </c>
+      <c r="T17">
+        <v>0.03001071126918888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.348712</v>
+      </c>
+      <c r="H18">
+        <v>0.697424</v>
+      </c>
+      <c r="I18">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J18">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.002342</v>
+      </c>
+      <c r="N18">
+        <v>0.007026</v>
+      </c>
+      <c r="O18">
+        <v>0.001793436954986034</v>
+      </c>
+      <c r="P18">
+        <v>0.002068861340060323</v>
+      </c>
+      <c r="Q18">
+        <v>0.0008166835040000001</v>
+      </c>
+      <c r="R18">
+        <v>0.004900101024</v>
+      </c>
+      <c r="S18">
+        <v>0.0002465746461910867</v>
+      </c>
+      <c r="T18">
+        <v>0.0002021442549967463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.348712</v>
+      </c>
+      <c r="H19">
+        <v>0.697424</v>
+      </c>
+      <c r="I19">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J19">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7819839999999999</v>
+      </c>
+      <c r="N19">
+        <v>2.345952</v>
+      </c>
+      <c r="O19">
+        <v>0.59882109470871</v>
+      </c>
+      <c r="P19">
+        <v>0.6907841443833183</v>
+      </c>
+      <c r="Q19">
+        <v>0.272687204608</v>
+      </c>
+      <c r="R19">
+        <v>1.636123227648</v>
+      </c>
+      <c r="S19">
+        <v>0.08233024258201997</v>
+      </c>
+      <c r="T19">
+        <v>0.06749512087932351</v>
       </c>
     </row>
   </sheetData>
